--- a/13/2/2/2/FRP por tipo de activo 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FRP por tipo de activo 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Serie</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -800,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3659,6 +3662,32 @@
         <v>589</v>
       </c>
     </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136">
+        <v>7479</v>
+      </c>
+      <c r="D136">
+        <v>2509</v>
+      </c>
+      <c r="E136">
+        <v>607</v>
+      </c>
+      <c r="F136">
+        <v>970</v>
+      </c>
+      <c r="G136">
+        <v>2361</v>
+      </c>
+      <c r="H136">
+        <v>443</v>
+      </c>
+      <c r="I136">
+        <v>589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/2/2/2/FRP por tipo de activo 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FRP por tipo de activo 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Serie</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -803,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3688,6 +3691,32 @@
         <v>589</v>
       </c>
     </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137">
+        <v>7521</v>
+      </c>
+      <c r="D137">
+        <v>2508</v>
+      </c>
+      <c r="E137">
+        <v>593</v>
+      </c>
+      <c r="F137">
+        <v>966</v>
+      </c>
+      <c r="G137">
+        <v>2419</v>
+      </c>
+      <c r="H137">
+        <v>442</v>
+      </c>
+      <c r="I137">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/2/2/2/FRP por tipo de activo 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FRP por tipo de activo 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Serie</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -806,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3717,6 +3720,32 @@
         <v>593</v>
       </c>
     </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138">
+        <v>7331</v>
+      </c>
+      <c r="D138">
+        <v>2458</v>
+      </c>
+      <c r="E138">
+        <v>575</v>
+      </c>
+      <c r="F138">
+        <v>951</v>
+      </c>
+      <c r="G138">
+        <v>2320</v>
+      </c>
+      <c r="H138">
+        <v>441</v>
+      </c>
+      <c r="I138">
+        <v>587</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
